--- a/BackTest/2020-01-11 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-11 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -921,6 +939,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -964,6 +983,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,6 +1025,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1040,6 +1061,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1075,6 +1097,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1110,6 +1133,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1145,6 +1169,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1180,6 +1205,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1215,6 +1241,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,6 +1277,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1285,6 +1313,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,6 +1349,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1355,6 +1385,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1390,6 +1421,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1425,6 +1457,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1460,6 +1493,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1495,6 +1529,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1530,6 +1565,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1565,6 +1601,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1600,6 +1637,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,6 +1673,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1670,6 +1709,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1705,6 +1745,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1740,6 +1781,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1775,6 +1817,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1810,6 +1853,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1845,6 +1889,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1880,6 +1925,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1915,6 +1961,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1950,6 +1997,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1985,6 +2033,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2020,6 +2069,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2055,6 +2105,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2090,6 +2141,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2125,6 +2177,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2160,6 +2213,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2199,6 +2253,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2242,6 +2297,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2285,6 +2341,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2324,6 +2381,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2367,6 +2425,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2410,6 +2469,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2445,6 +2505,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2480,6 +2541,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2515,6 +2577,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2550,6 +2613,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2585,6 +2649,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2626,6 +2691,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2665,6 +2731,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,6 +2773,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2747,6 +2815,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2788,6 +2857,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2827,6 +2897,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2868,6 +2939,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2907,6 +2979,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2946,6 +3019,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2985,6 +3059,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3026,6 +3101,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3065,6 +3141,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3106,6 +3183,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3147,6 +3225,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3188,6 +3267,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3229,6 +3309,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3270,6 +3351,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3311,6 +3393,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3352,6 +3435,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3393,6 +3477,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3434,6 +3519,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3473,6 +3559,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3512,6 +3599,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3551,6 +3639,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3590,6 +3679,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3629,6 +3719,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3668,6 +3759,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3707,6 +3799,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3746,6 +3839,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3785,6 +3879,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3824,6 +3919,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3863,6 +3959,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3902,6 +3999,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3943,6 +4041,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3982,6 +4081,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4023,6 +4123,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4062,6 +4163,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4101,6 +4203,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4140,6 +4243,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4179,6 +4283,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4218,6 +4323,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4257,6 +4363,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4296,6 +4403,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4335,6 +4443,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4374,6 +4483,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4413,6 +4523,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4452,6 +4563,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4491,6 +4603,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4530,6 +4643,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4569,6 +4683,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4608,6 +4723,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4647,6 +4763,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4686,6 +4803,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4725,6 +4843,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4764,6 +4883,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4803,6 +4923,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4842,6 +4963,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-11 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-11 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.15</v>
+        <v>29.29</v>
       </c>
       <c r="C2" t="n">
-        <v>29.15</v>
+        <v>29.29</v>
       </c>
       <c r="D2" t="n">
-        <v>29.15</v>
+        <v>29.29</v>
       </c>
       <c r="E2" t="n">
-        <v>29.15</v>
+        <v>29.29</v>
       </c>
       <c r="F2" t="n">
-        <v>687.3913</v>
+        <v>3400</v>
       </c>
       <c r="G2" t="n">
-        <v>-1221325.2396</v>
+        <v>-59452.60619999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.19</v>
+        <v>29.39</v>
       </c>
       <c r="C3" t="n">
-        <v>29.28</v>
+        <v>29.39</v>
       </c>
       <c r="D3" t="n">
-        <v>29.28</v>
+        <v>29.39</v>
       </c>
       <c r="E3" t="n">
-        <v>29.19</v>
+        <v>29.39</v>
       </c>
       <c r="F3" t="n">
-        <v>39600</v>
+        <v>1407</v>
       </c>
       <c r="G3" t="n">
-        <v>-1181725.2396</v>
+        <v>-58045.60619999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.19</v>
+        <v>29.39</v>
       </c>
       <c r="C4" t="n">
-        <v>29.26</v>
+        <v>29.39</v>
       </c>
       <c r="D4" t="n">
-        <v>29.26</v>
+        <v>29.39</v>
       </c>
       <c r="E4" t="n">
-        <v>29.19</v>
+        <v>29.39</v>
       </c>
       <c r="F4" t="n">
-        <v>40200</v>
+        <v>7935.5726</v>
       </c>
       <c r="G4" t="n">
-        <v>-1221925.2396</v>
+        <v>-58045.60619999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.38</v>
+        <v>29.69</v>
       </c>
       <c r="C5" t="n">
-        <v>29.47</v>
+        <v>29.69</v>
       </c>
       <c r="D5" t="n">
-        <v>29.47</v>
+        <v>29.69</v>
       </c>
       <c r="E5" t="n">
-        <v>29.38</v>
+        <v>29.69</v>
       </c>
       <c r="F5" t="n">
-        <v>148181.8389</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>-1073743.4007</v>
+        <v>-57945.60619999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.49</v>
+        <v>29.79</v>
       </c>
       <c r="C6" t="n">
-        <v>29.49</v>
+        <v>29.79</v>
       </c>
       <c r="D6" t="n">
-        <v>29.49</v>
+        <v>29.8</v>
       </c>
       <c r="E6" t="n">
-        <v>29.49</v>
+        <v>29.79</v>
       </c>
       <c r="F6" t="n">
-        <v>351.2892</v>
+        <v>63887.8204</v>
       </c>
       <c r="G6" t="n">
-        <v>-1073392.1115</v>
+        <v>5942.214200000009</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.39</v>
+        <v>29.69</v>
       </c>
       <c r="C7" t="n">
-        <v>29.39</v>
+        <v>29.69</v>
       </c>
       <c r="D7" t="n">
-        <v>29.39</v>
+        <v>29.69</v>
       </c>
       <c r="E7" t="n">
-        <v>29.39</v>
+        <v>29.69</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>-1073432.1115</v>
+        <v>5842.214200000009</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.14</v>
+        <v>29.68</v>
       </c>
       <c r="C8" t="n">
-        <v>29.29</v>
+        <v>29.78</v>
       </c>
       <c r="D8" t="n">
-        <v>29.29</v>
+        <v>29.78</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>29.68</v>
       </c>
       <c r="F8" t="n">
-        <v>148550.2281</v>
+        <v>40100</v>
       </c>
       <c r="G8" t="n">
-        <v>-1221982.3396</v>
+        <v>45942.21420000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.28</v>
+        <v>29.68</v>
       </c>
       <c r="C9" t="n">
-        <v>29.28</v>
+        <v>29.68</v>
       </c>
       <c r="D9" t="n">
-        <v>29.28</v>
+        <v>29.68</v>
       </c>
       <c r="E9" t="n">
-        <v>29.28</v>
+        <v>29.68</v>
       </c>
       <c r="F9" t="n">
-        <v>4837</v>
+        <v>60000</v>
       </c>
       <c r="G9" t="n">
-        <v>-1226819.3396</v>
+        <v>-14057.78579999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.08</v>
+        <v>29.42</v>
       </c>
       <c r="C10" t="n">
-        <v>29.08</v>
+        <v>29.32</v>
       </c>
       <c r="D10" t="n">
-        <v>29.08</v>
+        <v>29.42</v>
       </c>
       <c r="E10" t="n">
-        <v>29.08</v>
+        <v>29.32</v>
       </c>
       <c r="F10" t="n">
-        <v>56600</v>
+        <v>100000</v>
       </c>
       <c r="G10" t="n">
-        <v>-1283419.3396</v>
+        <v>-114057.7858</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.18</v>
+        <v>29.42</v>
       </c>
       <c r="C11" t="n">
-        <v>29.17</v>
+        <v>29.4</v>
       </c>
       <c r="D11" t="n">
-        <v>29.18</v>
+        <v>29.42</v>
       </c>
       <c r="E11" t="n">
-        <v>29.17</v>
+        <v>29.4</v>
       </c>
       <c r="F11" t="n">
-        <v>41600</v>
+        <v>20947.8706</v>
       </c>
       <c r="G11" t="n">
-        <v>-1241819.3396</v>
+        <v>-93109.91519999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>29.58</v>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>29.58</v>
       </c>
       <c r="D12" t="n">
-        <v>29</v>
+        <v>29.58</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>29.58</v>
       </c>
       <c r="F12" t="n">
-        <v>5402.6343</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>-1247221.9739</v>
+        <v>-93009.91519999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.08</v>
+        <v>29.4</v>
       </c>
       <c r="C13" t="n">
-        <v>29.08</v>
+        <v>29.4</v>
       </c>
       <c r="D13" t="n">
-        <v>29.08</v>
+        <v>29.4</v>
       </c>
       <c r="E13" t="n">
-        <v>29.08</v>
+        <v>29.4</v>
       </c>
       <c r="F13" t="n">
-        <v>23045.7338</v>
+        <v>18853.0836</v>
       </c>
       <c r="G13" t="n">
-        <v>-1224176.2401</v>
+        <v>-111862.9988</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.08</v>
+        <v>29.6</v>
       </c>
       <c r="C14" t="n">
-        <v>29.07</v>
+        <v>29.6</v>
       </c>
       <c r="D14" t="n">
-        <v>29.08</v>
+        <v>29.6</v>
       </c>
       <c r="E14" t="n">
-        <v>29.07</v>
+        <v>29.6</v>
       </c>
       <c r="F14" t="n">
-        <v>155253</v>
+        <v>19321.6211</v>
       </c>
       <c r="G14" t="n">
-        <v>-1379429.2401</v>
+        <v>-92541.37769999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,35 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.28</v>
+        <v>29.78</v>
       </c>
       <c r="C15" t="n">
-        <v>29.28</v>
+        <v>29.78</v>
       </c>
       <c r="D15" t="n">
-        <v>29.28</v>
+        <v>29.78</v>
       </c>
       <c r="E15" t="n">
-        <v>29.28</v>
+        <v>29.78</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>-1379411.2401</v>
+        <v>-92441.37769999998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29.07</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -946,40 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.27</v>
+        <v>29.78</v>
       </c>
       <c r="C16" t="n">
-        <v>29.29</v>
+        <v>29.78</v>
       </c>
       <c r="D16" t="n">
-        <v>29.29</v>
+        <v>29.78</v>
       </c>
       <c r="E16" t="n">
-        <v>29.27</v>
+        <v>29.78</v>
       </c>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>15858</v>
       </c>
       <c r="G16" t="n">
-        <v>-1379211.2401</v>
+        <v>-92441.37769999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>29.28</v>
-      </c>
-      <c r="K16" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -990,38 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.18</v>
+        <v>29.78</v>
       </c>
       <c r="C17" t="n">
-        <v>29.18</v>
+        <v>29.78</v>
       </c>
       <c r="D17" t="n">
-        <v>29.18</v>
+        <v>29.78</v>
       </c>
       <c r="E17" t="n">
-        <v>29.18</v>
+        <v>29.78</v>
       </c>
       <c r="F17" t="n">
-        <v>2217.8524</v>
+        <v>1108</v>
       </c>
       <c r="G17" t="n">
-        <v>-1381429.0925</v>
+        <v>-92441.37769999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1032,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.27</v>
+        <v>29.78</v>
       </c>
       <c r="C18" t="n">
-        <v>29.27</v>
+        <v>29.78</v>
       </c>
       <c r="D18" t="n">
-        <v>29.27</v>
+        <v>29.78</v>
       </c>
       <c r="E18" t="n">
-        <v>29.27</v>
+        <v>29.78</v>
       </c>
       <c r="F18" t="n">
-        <v>31857.2884</v>
+        <v>17990.7192</v>
       </c>
       <c r="G18" t="n">
-        <v>-1349571.8041</v>
+        <v>-92441.37769999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1068,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>29.06</v>
+        <v>29.87</v>
       </c>
       <c r="C19" t="n">
-        <v>29.06</v>
+        <v>29.87</v>
       </c>
       <c r="D19" t="n">
-        <v>29.06</v>
+        <v>29.87</v>
       </c>
       <c r="E19" t="n">
-        <v>29.06</v>
+        <v>29.87</v>
       </c>
       <c r="F19" t="n">
-        <v>23045.7338</v>
+        <v>47.4842</v>
       </c>
       <c r="G19" t="n">
-        <v>-1372617.5379</v>
+        <v>-92393.89349999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1104,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.23</v>
+        <v>29.89</v>
       </c>
       <c r="C20" t="n">
-        <v>29.23</v>
+        <v>29.89</v>
       </c>
       <c r="D20" t="n">
-        <v>29.23</v>
+        <v>29.89</v>
       </c>
       <c r="E20" t="n">
-        <v>29.23</v>
+        <v>29.89</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>-1372599.5379</v>
+        <v>-92293.89349999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1140,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.07</v>
+        <v>29.61</v>
       </c>
       <c r="C21" t="n">
-        <v>29.07</v>
+        <v>29.61</v>
       </c>
       <c r="D21" t="n">
-        <v>29.07</v>
+        <v>29.61</v>
       </c>
       <c r="E21" t="n">
-        <v>29.07</v>
+        <v>29.61</v>
       </c>
       <c r="F21" t="n">
-        <v>28529.6369</v>
+        <v>7674</v>
       </c>
       <c r="G21" t="n">
-        <v>-1401129.1748</v>
+        <v>-99967.89349999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1176,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.15</v>
+        <v>29.59</v>
       </c>
       <c r="C22" t="n">
-        <v>29.15</v>
+        <v>29.59</v>
       </c>
       <c r="D22" t="n">
-        <v>29.15</v>
+        <v>29.59</v>
       </c>
       <c r="E22" t="n">
-        <v>29.15</v>
+        <v>29.59</v>
       </c>
       <c r="F22" t="n">
-        <v>29168.514</v>
+        <v>3837</v>
       </c>
       <c r="G22" t="n">
-        <v>-1371960.6608</v>
+        <v>-103804.8935</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1212,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.29</v>
+        <v>29.49</v>
       </c>
       <c r="C23" t="n">
-        <v>29.29</v>
+        <v>29.49</v>
       </c>
       <c r="D23" t="n">
-        <v>29.29</v>
+        <v>29.49</v>
       </c>
       <c r="E23" t="n">
-        <v>29.29</v>
+        <v>29.49</v>
       </c>
       <c r="F23" t="n">
-        <v>40802.845</v>
+        <v>2117.6652</v>
       </c>
       <c r="G23" t="n">
-        <v>-1331157.8158</v>
+        <v>-105922.5587</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1248,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.15</v>
+        <v>29.39</v>
       </c>
       <c r="C24" t="n">
-        <v>29.06</v>
+        <v>29.39</v>
       </c>
       <c r="D24" t="n">
-        <v>29.15</v>
+        <v>29.39</v>
       </c>
       <c r="E24" t="n">
-        <v>29.06</v>
+        <v>29.39</v>
       </c>
       <c r="F24" t="n">
-        <v>40500</v>
+        <v>13681.0159</v>
       </c>
       <c r="G24" t="n">
-        <v>-1371657.8158</v>
+        <v>-119603.5746</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1284,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.19</v>
+        <v>29.31</v>
       </c>
       <c r="C25" t="n">
-        <v>29.19</v>
+        <v>29.01</v>
       </c>
       <c r="D25" t="n">
-        <v>29.19</v>
+        <v>29.31</v>
       </c>
       <c r="E25" t="n">
-        <v>29.19</v>
+        <v>29.01</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>1033498.9549</v>
       </c>
       <c r="G25" t="n">
-        <v>-1371639.8158</v>
+        <v>-1153102.5295</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1320,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.16</v>
+        <v>29.18</v>
       </c>
       <c r="C26" t="n">
-        <v>29.16</v>
+        <v>29.19</v>
       </c>
       <c r="D26" t="n">
-        <v>29.16</v>
+        <v>29.26</v>
       </c>
       <c r="E26" t="n">
-        <v>29.16</v>
+        <v>29.18</v>
       </c>
       <c r="F26" t="n">
-        <v>90000</v>
+        <v>1500</v>
       </c>
       <c r="G26" t="n">
-        <v>-1461639.8158</v>
+        <v>-1151602.5295</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1356,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.06</v>
+        <v>29.18</v>
       </c>
       <c r="C27" t="n">
-        <v>29.06</v>
+        <v>29.18</v>
       </c>
       <c r="D27" t="n">
-        <v>29.06</v>
+        <v>29.18</v>
       </c>
       <c r="E27" t="n">
-        <v>29.06</v>
+        <v>29.18</v>
       </c>
       <c r="F27" t="n">
-        <v>34553.5344</v>
+        <v>12679.9178</v>
       </c>
       <c r="G27" t="n">
-        <v>-1496193.3502</v>
+        <v>-1164282.4473</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1392,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.16</v>
+        <v>29.17</v>
       </c>
       <c r="C28" t="n">
-        <v>29.16</v>
+        <v>29.17</v>
       </c>
       <c r="D28" t="n">
-        <v>29.16</v>
+        <v>29.17</v>
       </c>
       <c r="E28" t="n">
-        <v>29.16</v>
+        <v>29.17</v>
       </c>
       <c r="F28" t="n">
-        <v>12330.544</v>
+        <v>6327</v>
       </c>
       <c r="G28" t="n">
-        <v>-1483862.8062</v>
+        <v>-1170609.4473</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1428,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.19</v>
+        <v>29.25</v>
       </c>
       <c r="C29" t="n">
-        <v>29.19</v>
+        <v>29.25</v>
       </c>
       <c r="D29" t="n">
-        <v>29.19</v>
+        <v>29.25</v>
       </c>
       <c r="E29" t="n">
-        <v>29.19</v>
+        <v>29.25</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>26971.599</v>
       </c>
       <c r="G29" t="n">
-        <v>-1483762.8062</v>
+        <v>-1143637.8483</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1464,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.19</v>
+        <v>29.18</v>
       </c>
       <c r="C30" t="n">
-        <v>29.19</v>
+        <v>29.18</v>
       </c>
       <c r="D30" t="n">
-        <v>29.19</v>
+        <v>29.18</v>
       </c>
       <c r="E30" t="n">
-        <v>29.19</v>
+        <v>29.15</v>
       </c>
       <c r="F30" t="n">
-        <v>12012.8295</v>
+        <v>77000</v>
       </c>
       <c r="G30" t="n">
-        <v>-1483762.8062</v>
+        <v>-1220637.8483</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1500,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29.09</v>
+        <v>29.15</v>
       </c>
       <c r="C31" t="n">
-        <v>29.09</v>
+        <v>29.15</v>
       </c>
       <c r="D31" t="n">
-        <v>29.09</v>
+        <v>29.15</v>
       </c>
       <c r="E31" t="n">
-        <v>29.09</v>
+        <v>29.15</v>
       </c>
       <c r="F31" t="n">
-        <v>9873</v>
+        <v>687.3913</v>
       </c>
       <c r="G31" t="n">
-        <v>-1493635.8062</v>
+        <v>-1221325.2396</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1536,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.1</v>
+        <v>29.19</v>
       </c>
       <c r="C32" t="n">
-        <v>29.1</v>
+        <v>29.28</v>
       </c>
       <c r="D32" t="n">
-        <v>29.1</v>
+        <v>29.28</v>
       </c>
       <c r="E32" t="n">
-        <v>29.1</v>
+        <v>29.19</v>
       </c>
       <c r="F32" t="n">
-        <v>80837.5974</v>
+        <v>39600</v>
       </c>
       <c r="G32" t="n">
-        <v>-1412798.2088</v>
+        <v>-1181725.2396</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1572,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.09</v>
+        <v>29.19</v>
       </c>
       <c r="C33" t="n">
-        <v>29.09</v>
+        <v>29.26</v>
       </c>
       <c r="D33" t="n">
-        <v>29.09</v>
+        <v>29.26</v>
       </c>
       <c r="E33" t="n">
-        <v>29.09</v>
+        <v>29.19</v>
       </c>
       <c r="F33" t="n">
-        <v>2000</v>
+        <v>40200</v>
       </c>
       <c r="G33" t="n">
-        <v>-1414798.2088</v>
+        <v>-1221925.2396</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1608,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>29.09</v>
+        <v>29.38</v>
       </c>
       <c r="C34" t="n">
-        <v>29.02</v>
+        <v>29.47</v>
       </c>
       <c r="D34" t="n">
-        <v>29.09</v>
+        <v>29.47</v>
       </c>
       <c r="E34" t="n">
-        <v>29.02</v>
+        <v>29.38</v>
       </c>
       <c r="F34" t="n">
-        <v>42730.544</v>
+        <v>148181.8389</v>
       </c>
       <c r="G34" t="n">
-        <v>-1457528.7528</v>
+        <v>-1073743.4007</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1644,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.02</v>
+        <v>29.49</v>
       </c>
       <c r="C35" t="n">
-        <v>29</v>
+        <v>29.49</v>
       </c>
       <c r="D35" t="n">
-        <v>29.02</v>
+        <v>29.49</v>
       </c>
       <c r="E35" t="n">
-        <v>29</v>
+        <v>29.49</v>
       </c>
       <c r="F35" t="n">
-        <v>20612.6918</v>
+        <v>351.2892</v>
       </c>
       <c r="G35" t="n">
-        <v>-1478141.4446</v>
+        <v>-1073392.1115</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1680,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>28.99</v>
+        <v>29.39</v>
       </c>
       <c r="C36" t="n">
-        <v>28.96</v>
+        <v>29.39</v>
       </c>
       <c r="D36" t="n">
-        <v>28.99</v>
+        <v>29.39</v>
       </c>
       <c r="E36" t="n">
-        <v>28.96</v>
+        <v>29.39</v>
       </c>
       <c r="F36" t="n">
-        <v>21253.7373</v>
+        <v>40</v>
       </c>
       <c r="G36" t="n">
-        <v>-1499395.1819</v>
+        <v>-1073432.1115</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1716,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>28.88</v>
+        <v>29.14</v>
       </c>
       <c r="C37" t="n">
-        <v>28.81</v>
+        <v>29.29</v>
       </c>
       <c r="D37" t="n">
-        <v>28.88</v>
+        <v>29.29</v>
       </c>
       <c r="E37" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
-        <v>29663.0934</v>
+        <v>148550.2281</v>
       </c>
       <c r="G37" t="n">
-        <v>-1529058.2753</v>
+        <v>-1221982.3396</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1752,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>28.81</v>
+        <v>29.28</v>
       </c>
       <c r="C38" t="n">
-        <v>28.89</v>
+        <v>29.28</v>
       </c>
       <c r="D38" t="n">
-        <v>28.89</v>
+        <v>29.28</v>
       </c>
       <c r="E38" t="n">
-        <v>28.81</v>
+        <v>29.28</v>
       </c>
       <c r="F38" t="n">
-        <v>31504.1487</v>
+        <v>4837</v>
       </c>
       <c r="G38" t="n">
-        <v>-1497554.1266</v>
+        <v>-1226819.3396</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1788,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>28.99</v>
+        <v>29.08</v>
       </c>
       <c r="C39" t="n">
-        <v>28.99</v>
+        <v>29.08</v>
       </c>
       <c r="D39" t="n">
-        <v>28.99</v>
+        <v>29.08</v>
       </c>
       <c r="E39" t="n">
-        <v>28.99</v>
+        <v>29.08</v>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>56600</v>
       </c>
       <c r="G39" t="n">
-        <v>-1497454.1266</v>
+        <v>-1283419.3396</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1824,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>28.81</v>
+        <v>29.18</v>
       </c>
       <c r="C40" t="n">
-        <v>28.81</v>
+        <v>29.17</v>
       </c>
       <c r="D40" t="n">
-        <v>28.81</v>
+        <v>29.18</v>
       </c>
       <c r="E40" t="n">
-        <v>28.81</v>
+        <v>29.17</v>
       </c>
       <c r="F40" t="n">
-        <v>12244.0336</v>
+        <v>41600</v>
       </c>
       <c r="G40" t="n">
-        <v>-1509698.1602</v>
+        <v>-1241819.3396</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1860,7 +1842,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>28.98</v>
+        <v>29</v>
       </c>
       <c r="C41" t="n">
         <v>29</v>
@@ -1869,13 +1851,13 @@
         <v>29</v>
       </c>
       <c r="E41" t="n">
-        <v>28.98</v>
+        <v>29</v>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>5402.6343</v>
       </c>
       <c r="G41" t="n">
-        <v>-1509498.1602</v>
+        <v>-1247221.9739</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1896,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29</v>
+        <v>29.08</v>
       </c>
       <c r="C42" t="n">
-        <v>29</v>
+        <v>29.08</v>
       </c>
       <c r="D42" t="n">
-        <v>29</v>
+        <v>29.08</v>
       </c>
       <c r="E42" t="n">
-        <v>29</v>
+        <v>29.08</v>
       </c>
       <c r="F42" t="n">
-        <v>13256.0506</v>
+        <v>23045.7338</v>
       </c>
       <c r="G42" t="n">
-        <v>-1509498.1602</v>
+        <v>-1224176.2401</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1932,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>28.92</v>
+        <v>29.08</v>
       </c>
       <c r="C43" t="n">
-        <v>28.82</v>
+        <v>29.07</v>
       </c>
       <c r="D43" t="n">
-        <v>28.92</v>
+        <v>29.08</v>
       </c>
       <c r="E43" t="n">
-        <v>28.82</v>
+        <v>29.07</v>
       </c>
       <c r="F43" t="n">
-        <v>14341.1596</v>
+        <v>155253</v>
       </c>
       <c r="G43" t="n">
-        <v>-1523839.319799999</v>
+        <v>-1379429.2401</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1968,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>28.99</v>
+        <v>29.28</v>
       </c>
       <c r="C44" t="n">
-        <v>28.99</v>
+        <v>29.28</v>
       </c>
       <c r="D44" t="n">
-        <v>28.99</v>
+        <v>29.28</v>
       </c>
       <c r="E44" t="n">
-        <v>28.99</v>
+        <v>29.28</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
       </c>
       <c r="G44" t="n">
-        <v>-1523821.319799999</v>
+        <v>-1379411.2401</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>28.82</v>
+        <v>29.27</v>
       </c>
       <c r="C45" t="n">
-        <v>28.82</v>
+        <v>29.29</v>
       </c>
       <c r="D45" t="n">
-        <v>28.82</v>
+        <v>29.29</v>
       </c>
       <c r="E45" t="n">
-        <v>28.82</v>
+        <v>29.27</v>
       </c>
       <c r="F45" t="n">
-        <v>10800</v>
+        <v>200</v>
       </c>
       <c r="G45" t="n">
-        <v>-1534621.319799999</v>
+        <v>-1379211.2401</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2040,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>28.9</v>
+        <v>29.18</v>
       </c>
       <c r="C46" t="n">
-        <v>28.9</v>
+        <v>29.18</v>
       </c>
       <c r="D46" t="n">
-        <v>28.9</v>
+        <v>29.18</v>
       </c>
       <c r="E46" t="n">
-        <v>28.9</v>
+        <v>29.18</v>
       </c>
       <c r="F46" t="n">
-        <v>18</v>
+        <v>2217.8524</v>
       </c>
       <c r="G46" t="n">
-        <v>-1534603.319799999</v>
+        <v>-1381429.0925</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2076,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>28.82</v>
+        <v>29.27</v>
       </c>
       <c r="C47" t="n">
-        <v>28.82</v>
+        <v>29.27</v>
       </c>
       <c r="D47" t="n">
-        <v>28.82</v>
+        <v>29.27</v>
       </c>
       <c r="E47" t="n">
-        <v>28.82</v>
+        <v>29.27</v>
       </c>
       <c r="F47" t="n">
-        <v>2226.854</v>
+        <v>31857.2884</v>
       </c>
       <c r="G47" t="n">
-        <v>-1536830.1738</v>
+        <v>-1349571.8041</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2112,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.1</v>
+        <v>29.06</v>
       </c>
       <c r="C48" t="n">
-        <v>29.1</v>
+        <v>29.06</v>
       </c>
       <c r="D48" t="n">
-        <v>29.1</v>
+        <v>29.06</v>
       </c>
       <c r="E48" t="n">
-        <v>29.1</v>
+        <v>29.06</v>
       </c>
       <c r="F48" t="n">
-        <v>18</v>
+        <v>23045.7338</v>
       </c>
       <c r="G48" t="n">
-        <v>-1536812.1738</v>
+        <v>-1372617.5379</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2148,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>28.97</v>
+        <v>29.23</v>
       </c>
       <c r="C49" t="n">
-        <v>28.97</v>
+        <v>29.23</v>
       </c>
       <c r="D49" t="n">
-        <v>28.97</v>
+        <v>29.23</v>
       </c>
       <c r="E49" t="n">
-        <v>28.97</v>
+        <v>29.23</v>
       </c>
       <c r="F49" t="n">
-        <v>3443.3646</v>
+        <v>18</v>
       </c>
       <c r="G49" t="n">
-        <v>-1540255.538399999</v>
+        <v>-1372599.5379</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2184,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.99</v>
+        <v>29.07</v>
       </c>
       <c r="C50" t="n">
-        <v>28.99</v>
+        <v>29.07</v>
       </c>
       <c r="D50" t="n">
-        <v>28.99</v>
+        <v>29.07</v>
       </c>
       <c r="E50" t="n">
-        <v>28.99</v>
+        <v>29.07</v>
       </c>
       <c r="F50" t="n">
-        <v>18</v>
+        <v>28529.6369</v>
       </c>
       <c r="G50" t="n">
-        <v>-1540237.538399999</v>
+        <v>-1401129.1748</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2220,35 +2202,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.06</v>
+        <v>29.15</v>
       </c>
       <c r="C51" t="n">
-        <v>29.06</v>
+        <v>29.15</v>
       </c>
       <c r="D51" t="n">
-        <v>29.06</v>
+        <v>29.15</v>
       </c>
       <c r="E51" t="n">
-        <v>29.06</v>
+        <v>29.15</v>
       </c>
       <c r="F51" t="n">
-        <v>33.0524</v>
+        <v>29168.514</v>
       </c>
       <c r="G51" t="n">
-        <v>-1540204.486</v>
+        <v>-1371960.6608</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K51" t="n">
-        <v>28.99</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2260,40 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.08</v>
+        <v>29.29</v>
       </c>
       <c r="C52" t="n">
-        <v>29.08</v>
+        <v>29.29</v>
       </c>
       <c r="D52" t="n">
-        <v>29.08</v>
+        <v>29.29</v>
       </c>
       <c r="E52" t="n">
-        <v>29.08</v>
+        <v>29.29</v>
       </c>
       <c r="F52" t="n">
-        <v>11006</v>
+        <v>40802.845</v>
       </c>
       <c r="G52" t="n">
-        <v>-1529198.486</v>
+        <v>-1331157.8158</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>29.06</v>
-      </c>
-      <c r="K52" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2304,40 +2274,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.08</v>
+        <v>29.15</v>
       </c>
       <c r="C53" t="n">
-        <v>29.08</v>
+        <v>29.06</v>
       </c>
       <c r="D53" t="n">
-        <v>29.08</v>
+        <v>29.15</v>
       </c>
       <c r="E53" t="n">
-        <v>29.08</v>
+        <v>29.06</v>
       </c>
       <c r="F53" t="n">
-        <v>6738.6065</v>
+        <v>40500</v>
       </c>
       <c r="G53" t="n">
-        <v>-1529198.486</v>
+        <v>-1371657.8158</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K53" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2348,35 +2310,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.08</v>
+        <v>29.19</v>
       </c>
       <c r="C54" t="n">
-        <v>29.08</v>
+        <v>29.19</v>
       </c>
       <c r="D54" t="n">
-        <v>29.08</v>
+        <v>29.19</v>
       </c>
       <c r="E54" t="n">
-        <v>29.08</v>
+        <v>29.19</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G54" t="n">
-        <v>-1529198.486</v>
+        <v>-1371639.8158</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K54" t="n">
-        <v>29.08</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
@@ -2388,40 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29.08</v>
+        <v>29.16</v>
       </c>
       <c r="C55" t="n">
-        <v>29.08</v>
+        <v>29.16</v>
       </c>
       <c r="D55" t="n">
-        <v>29.08</v>
+        <v>29.16</v>
       </c>
       <c r="E55" t="n">
-        <v>29.08</v>
+        <v>29.16</v>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>90000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1529198.486</v>
+        <v>-1461639.8158</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K55" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2432,40 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.19</v>
+        <v>29.06</v>
       </c>
       <c r="C56" t="n">
-        <v>29.19</v>
+        <v>29.06</v>
       </c>
       <c r="D56" t="n">
-        <v>29.19</v>
+        <v>29.06</v>
       </c>
       <c r="E56" t="n">
-        <v>29.19</v>
+        <v>29.06</v>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>34553.5344</v>
       </c>
       <c r="G56" t="n">
-        <v>-1529098.486</v>
+        <v>-1496193.3502</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K56" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2476,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>28.93</v>
+        <v>29.16</v>
       </c>
       <c r="C57" t="n">
-        <v>28.93</v>
+        <v>29.16</v>
       </c>
       <c r="D57" t="n">
-        <v>28.93</v>
+        <v>29.16</v>
       </c>
       <c r="E57" t="n">
-        <v>28.93</v>
+        <v>29.16</v>
       </c>
       <c r="F57" t="n">
-        <v>932.0207</v>
+        <v>12330.544</v>
       </c>
       <c r="G57" t="n">
-        <v>-1530030.5067</v>
+        <v>-1483862.8062</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2512,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29.1</v>
+        <v>29.19</v>
       </c>
       <c r="C58" t="n">
-        <v>29.1</v>
+        <v>29.19</v>
       </c>
       <c r="D58" t="n">
-        <v>29.1</v>
+        <v>29.19</v>
       </c>
       <c r="E58" t="n">
-        <v>29.1</v>
+        <v>29.19</v>
       </c>
       <c r="F58" t="n">
         <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>-1529930.5067</v>
+        <v>-1483762.8062</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2548,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.09</v>
+        <v>29.19</v>
       </c>
       <c r="C59" t="n">
-        <v>29.09</v>
+        <v>29.19</v>
       </c>
       <c r="D59" t="n">
-        <v>29.09</v>
+        <v>29.19</v>
       </c>
       <c r="E59" t="n">
-        <v>29.09</v>
+        <v>29.19</v>
       </c>
       <c r="F59" t="n">
-        <v>99.84999999999999</v>
+        <v>12012.8295</v>
       </c>
       <c r="G59" t="n">
-        <v>-1530030.3567</v>
+        <v>-1483762.8062</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2596,10 +2538,10 @@
         <v>29.09</v>
       </c>
       <c r="F60" t="n">
-        <v>0.15</v>
+        <v>9873</v>
       </c>
       <c r="G60" t="n">
-        <v>-1530030.3567</v>
+        <v>-1493635.8062</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2620,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>28.99</v>
+        <v>29.1</v>
       </c>
       <c r="C61" t="n">
-        <v>28.99</v>
+        <v>29.1</v>
       </c>
       <c r="D61" t="n">
-        <v>28.99</v>
+        <v>29.1</v>
       </c>
       <c r="E61" t="n">
-        <v>28.99</v>
+        <v>29.1</v>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>80837.5974</v>
       </c>
       <c r="G61" t="n">
-        <v>-1530130.3567</v>
+        <v>-1412798.2088</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2656,1750 +2598,1584 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="C62" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D62" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E62" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1414798.2088</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="C63" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="D63" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E63" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="F63" t="n">
+        <v>42730.544</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1457528.7528</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="C64" t="n">
+        <v>29</v>
+      </c>
+      <c r="D64" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="E64" t="n">
+        <v>29</v>
+      </c>
+      <c r="F64" t="n">
+        <v>20612.6918</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1478141.4446</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>28.99</v>
       </c>
-      <c r="C62" t="n">
-        <v>29</v>
-      </c>
-      <c r="D62" t="n">
-        <v>29</v>
-      </c>
-      <c r="E62" t="n">
+      <c r="C65" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="D65" t="n">
         <v>28.99</v>
       </c>
-      <c r="F62" t="n">
+      <c r="E65" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="F65" t="n">
+        <v>21253.7373</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1499395.1819</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="C66" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="D66" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="E66" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>29663.0934</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1529058.2753</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="C67" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="D67" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="E67" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="F67" t="n">
+        <v>31504.1487</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1497554.1266</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C68" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D68" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E68" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1497454.1266</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="C69" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="D69" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="E69" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12244.0336</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1509698.1602</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="C70" t="n">
+        <v>29</v>
+      </c>
+      <c r="D70" t="n">
+        <v>29</v>
+      </c>
+      <c r="E70" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="F70" t="n">
+        <v>200</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1509498.1602</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>29</v>
+      </c>
+      <c r="C71" t="n">
+        <v>29</v>
+      </c>
+      <c r="D71" t="n">
+        <v>29</v>
+      </c>
+      <c r="E71" t="n">
+        <v>29</v>
+      </c>
+      <c r="F71" t="n">
+        <v>13256.0506</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1509498.1602</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="C72" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="D72" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="E72" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="F72" t="n">
+        <v>14341.1596</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1523839.319799999</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C73" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D73" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E73" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F73" t="n">
+        <v>18</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1523821.319799999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="C74" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="D74" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="E74" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10800</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1534621.319799999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C75" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D75" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E75" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>18</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1534603.319799999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="C76" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="D76" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="E76" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2226.854</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1536830.1738</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>18</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1536812.1738</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="C78" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="D78" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="E78" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3443.3646</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1540255.538399999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C79" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D79" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E79" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F79" t="n">
+        <v>18</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1540237.538399999</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="C80" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="D80" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="E80" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="F80" t="n">
+        <v>33.0524</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1540204.486</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="C81" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="D81" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="E81" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11006</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1529198.486</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="C82" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="D82" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="E82" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6738.6065</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1529198.486</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="C83" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="D83" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="E83" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1529198.486</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="C84" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="D84" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="E84" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1529198.486</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="C85" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D85" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="E85" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="F85" t="n">
+        <v>100</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1529098.486</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="C86" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="D86" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="E86" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="F86" t="n">
+        <v>932.0207</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1530030.5067</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>100</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1529930.5067</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="C88" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D88" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E88" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="F88" t="n">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1530030.3567</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="C89" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D89" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E89" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1530030.3567</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C90" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D90" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E90" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F90" t="n">
+        <v>100</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1530130.3567</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C91" t="n">
+        <v>29</v>
+      </c>
+      <c r="D91" t="n">
+        <v>29</v>
+      </c>
+      <c r="E91" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F91" t="n">
         <v>5334.517241379311</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G91" t="n">
         <v>-1524795.83945862</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="C92" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="D92" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="E92" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="F92" t="n">
+        <v>500</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1525295.83945862</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
         <v>28.99</v>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="C93" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D93" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E93" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F93" t="n">
+        <v>100</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1525195.83945862</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="C94" t="n">
+        <v>29</v>
+      </c>
+      <c r="D94" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="E94" t="n">
+        <v>29</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8775.1558</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1516420.68365862</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="C95" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="D95" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="E95" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1829.1079</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1518249.79155862</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>29</v>
+      </c>
+      <c r="K95" t="n">
+        <v>29</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="C96" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="D96" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="E96" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="F96" t="n">
+        <v>100</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1518149.79155862</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K96" t="n">
+        <v>29</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>100</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1518049.79155862</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="K97" t="n">
+        <v>29</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="C98" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D98" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E98" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1518149.79155862</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="C99" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="D99" t="n">
+        <v>29</v>
+      </c>
+      <c r="E99" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7589.661</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1525739.45255862</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="C100" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="D100" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="E100" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7695.0523</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1518044.40025862</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>29</v>
+      </c>
+      <c r="C101" t="n">
+        <v>29</v>
+      </c>
+      <c r="D101" t="n">
+        <v>29</v>
+      </c>
+      <c r="E101" t="n">
+        <v>29</v>
+      </c>
+      <c r="F101" t="n">
+        <v>200</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1517844.40025862</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C102" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D102" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E102" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1517944.40025862</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>29</v>
+      </c>
+      <c r="K102" t="n">
+        <v>29</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C103" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D103" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E103" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F103" t="n">
+        <v>350.3221</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1517944.40025862</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="K103" t="n">
+        <v>29</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C104" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="D104" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="E104" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6352.8182</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1524297.21845862</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="K104" t="n">
+        <v>29</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="C63" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="D63" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="E63" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="F63" t="n">
-        <v>500</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-1525295.83945862</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C64" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D64" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E64" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F64" t="n">
-        <v>100</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-1525195.83945862</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>29.02</v>
-      </c>
-      <c r="C65" t="n">
-        <v>29</v>
-      </c>
-      <c r="D65" t="n">
-        <v>29.02</v>
-      </c>
-      <c r="E65" t="n">
-        <v>29</v>
-      </c>
-      <c r="F65" t="n">
-        <v>8775.1558</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1516420.68365862</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="C66" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="D66" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="E66" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1829.1079</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1518249.79155862</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>29</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="C67" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="D67" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="E67" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="F67" t="n">
-        <v>100</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1518149.79155862</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>100</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1518049.79155862</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="C69" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="D69" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="E69" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="F69" t="n">
-        <v>100</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1518149.79155862</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="C70" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="D70" t="n">
-        <v>29</v>
-      </c>
-      <c r="E70" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7589.661</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1525739.45255862</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="C71" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="D71" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="E71" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="F71" t="n">
-        <v>7695.0523</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1518044.40025862</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>29</v>
-      </c>
-      <c r="C72" t="n">
-        <v>29</v>
-      </c>
-      <c r="D72" t="n">
-        <v>29</v>
-      </c>
-      <c r="E72" t="n">
-        <v>29</v>
-      </c>
-      <c r="F72" t="n">
-        <v>200</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1517844.40025862</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C73" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D73" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E73" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F73" t="n">
-        <v>100</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1517944.40025862</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C74" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D74" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E74" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F74" t="n">
-        <v>350.3221</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-1517944.40025862</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C75" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="D75" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="E75" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>6352.8182</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-1524297.21845862</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C76" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D76" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E76" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F76" t="n">
-        <v>100</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1524197.21845862</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C77" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="D77" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="E77" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F77" t="n">
-        <v>200</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1523997.21845862</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C78" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D78" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E78" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F78" t="n">
-        <v>100</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-1524097.21845862</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="C79" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="D79" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="E79" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="F79" t="n">
-        <v>100</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-1523997.21845862</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="C80" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="D80" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="E80" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="F80" t="n">
-        <v>100</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-1523897.21845862</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C81" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D81" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E81" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F81" t="n">
-        <v>100</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-1523797.21845862</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="C82" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="D82" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="E82" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="F82" t="n">
-        <v>100</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-1523697.21845862</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="C83" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="D83" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="E83" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2041.0181</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-1523697.21845862</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="C84" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="D84" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="E84" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="F84" t="n">
-        <v>100</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-1523597.21845862</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C85" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D85" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E85" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F85" t="n">
-        <v>100</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-1523497.21845862</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F86" t="n">
-        <v>100</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-1523497.21845862</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="C87" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="D87" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="E87" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="F87" t="n">
-        <v>100</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-1523397.21845862</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C88" t="n">
-        <v>29</v>
-      </c>
-      <c r="D88" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="E88" t="n">
-        <v>29</v>
-      </c>
-      <c r="F88" t="n">
-        <v>26807.931</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1550205.14945862</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>100</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-1550105.14945862</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="C90" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="D90" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="E90" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="F90" t="n">
-        <v>100</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1550005.14945862</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="C91" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="D91" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="E91" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="F91" t="n">
-        <v>100</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1550105.14945862</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C92" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D92" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E92" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F92" t="n">
-        <v>759.8954</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1550865.044858621</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="C93" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="D93" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="E93" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="F93" t="n">
-        <v>300</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-1550565.044858621</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C94" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="D94" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="E94" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F94" t="n">
-        <v>26600</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-1523965.044858621</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>29</v>
-      </c>
-      <c r="C95" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="D95" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="E95" t="n">
-        <v>29</v>
-      </c>
-      <c r="F95" t="n">
-        <v>7577.77</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-1523965.044858621</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="D96" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="E96" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F96" t="n">
-        <v>30100</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-1554065.044858621</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="C97" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="D97" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="E97" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="F97" t="n">
-        <v>34513.3145</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-1519551.73035862</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="C98" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="F98" t="n">
-        <v>200</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-1519351.73035862</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C99" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="D99" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E99" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="F99" t="n">
-        <v>500</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-1519851.73035862</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C100" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D100" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E100" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F100" t="n">
-        <v>100</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-1519751.73035862</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="C101" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="D101" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="E101" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="F101" t="n">
-        <v>3214</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-1516537.73035862</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>29.57</v>
-      </c>
-      <c r="C102" t="n">
-        <v>29.57</v>
-      </c>
-      <c r="D102" t="n">
-        <v>29.57</v>
-      </c>
-      <c r="E102" t="n">
-        <v>29.57</v>
-      </c>
-      <c r="F102" t="n">
-        <v>100</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-1516437.73035862</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>29.49</v>
-      </c>
-      <c r="C103" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="D103" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="E103" t="n">
-        <v>29.49</v>
-      </c>
-      <c r="F103" t="n">
-        <v>6300</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-1522737.73035862</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="C104" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="D104" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="E104" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="F104" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-1562737.73035862</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4410,31 +4186,35 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>29.29</v>
+        <v>28.99</v>
       </c>
       <c r="C105" t="n">
-        <v>29.29</v>
+        <v>28.99</v>
       </c>
       <c r="D105" t="n">
-        <v>29.29</v>
+        <v>28.99</v>
       </c>
       <c r="E105" t="n">
-        <v>29.29</v>
+        <v>28.99</v>
       </c>
       <c r="F105" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>-1572737.73035862</v>
+        <v>-1524197.21845862</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="K105" t="n">
+        <v>29</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,31 +4230,35 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>29.29</v>
+        <v>28.99</v>
       </c>
       <c r="C106" t="n">
-        <v>29.2</v>
+        <v>29.08</v>
       </c>
       <c r="D106" t="n">
-        <v>29.29</v>
+        <v>29.08</v>
       </c>
       <c r="E106" t="n">
-        <v>29.2</v>
+        <v>28.99</v>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
-        <v>-1582737.73035862</v>
+        <v>-1523997.21845862</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="K106" t="n">
+        <v>29</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,31 +4274,35 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>29.39</v>
+        <v>28.99</v>
       </c>
       <c r="C107" t="n">
-        <v>29.39</v>
+        <v>28.99</v>
       </c>
       <c r="D107" t="n">
-        <v>29.39</v>
+        <v>28.99</v>
       </c>
       <c r="E107" t="n">
-        <v>29.39</v>
+        <v>28.99</v>
       </c>
       <c r="F107" t="n">
-        <v>4534.677</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>-1578203.05335862</v>
+        <v>-1524097.21845862</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="K107" t="n">
+        <v>29</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4530,31 +4318,35 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>29.38</v>
+        <v>29.08</v>
       </c>
       <c r="C108" t="n">
-        <v>29.38</v>
+        <v>29.08</v>
       </c>
       <c r="D108" t="n">
-        <v>29.38</v>
+        <v>29.08</v>
       </c>
       <c r="E108" t="n">
-        <v>29.38</v>
+        <v>29.08</v>
       </c>
       <c r="F108" t="n">
-        <v>4012.7095</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>-1582215.762858621</v>
+        <v>-1523997.21845862</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="K108" t="n">
+        <v>29</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,31 +4362,35 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>29.6</v>
+        <v>29.19</v>
       </c>
       <c r="C109" t="n">
-        <v>29.6</v>
+        <v>29.19</v>
       </c>
       <c r="D109" t="n">
-        <v>29.6</v>
+        <v>29.19</v>
       </c>
       <c r="E109" t="n">
-        <v>29.6</v>
+        <v>29.19</v>
       </c>
       <c r="F109" t="n">
-        <v>1726.993243243243</v>
+        <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>-1580488.769615377</v>
+        <v>-1523897.21845862</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="K109" t="n">
+        <v>29</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,31 +4406,35 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="C110" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="D110" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="E110" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="F110" t="n">
-        <v>34.00673400673401</v>
+        <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>-1580454.76288137</v>
+        <v>-1523797.21845862</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="K110" t="n">
+        <v>29</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4650,22 +4450,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>29.76</v>
+        <v>29.29</v>
       </c>
       <c r="C111" t="n">
-        <v>29.76</v>
+        <v>29.29</v>
       </c>
       <c r="D111" t="n">
-        <v>29.76</v>
+        <v>29.29</v>
       </c>
       <c r="E111" t="n">
-        <v>29.76</v>
+        <v>29.29</v>
       </c>
       <c r="F111" t="n">
-        <v>34.00537634408602</v>
+        <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>-1580420.757505026</v>
+        <v>-1523697.21845862</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4674,7 +4474,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>29</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4690,22 +4492,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>29.78</v>
+        <v>29.29</v>
       </c>
       <c r="C112" t="n">
-        <v>29.78</v>
+        <v>29.29</v>
       </c>
       <c r="D112" t="n">
-        <v>29.78</v>
+        <v>29.29</v>
       </c>
       <c r="E112" t="n">
-        <v>29.78</v>
+        <v>29.29</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>2041.0181</v>
       </c>
       <c r="G112" t="n">
-        <v>-1580320.757505026</v>
+        <v>-1523697.21845862</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4714,7 +4516,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>29</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4730,22 +4534,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>29.8</v>
+        <v>29.39</v>
       </c>
       <c r="C113" t="n">
-        <v>29.8</v>
+        <v>29.39</v>
       </c>
       <c r="D113" t="n">
-        <v>29.8</v>
+        <v>29.39</v>
       </c>
       <c r="E113" t="n">
-        <v>29.8</v>
+        <v>29.39</v>
       </c>
       <c r="F113" t="n">
         <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>-1580220.757505026</v>
+        <v>-1523597.21845862</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4754,7 +4558,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>29</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4770,22 +4576,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>29.53</v>
+        <v>29.4</v>
       </c>
       <c r="C114" t="n">
-        <v>29.69</v>
+        <v>29.4</v>
       </c>
       <c r="D114" t="n">
-        <v>29.69</v>
+        <v>29.4</v>
       </c>
       <c r="E114" t="n">
-        <v>29.53</v>
+        <v>29.4</v>
       </c>
       <c r="F114" t="n">
-        <v>99897</v>
+        <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>-1680117.757505026</v>
+        <v>-1523497.21845862</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4794,7 +4600,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>29</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,22 +4618,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>29.68</v>
+        <v>29.4</v>
       </c>
       <c r="C115" t="n">
-        <v>29.77</v>
+        <v>29.4</v>
       </c>
       <c r="D115" t="n">
-        <v>29.77</v>
+        <v>29.4</v>
       </c>
       <c r="E115" t="n">
-        <v>29.68</v>
+        <v>29.4</v>
       </c>
       <c r="F115" t="n">
-        <v>898.009069533087</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>-1679219.748435493</v>
+        <v>-1523497.21845862</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4834,7 +4642,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>29</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,22 +4660,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>29.78</v>
+        <v>29.48</v>
       </c>
       <c r="C116" t="n">
-        <v>29.79</v>
+        <v>29.48</v>
       </c>
       <c r="D116" t="n">
-        <v>29.79</v>
+        <v>29.48</v>
       </c>
       <c r="E116" t="n">
-        <v>29.78</v>
+        <v>29.48</v>
       </c>
       <c r="F116" t="n">
-        <v>234.004699563612</v>
+        <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>-1678985.74373593</v>
+        <v>-1523397.21845862</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4874,7 +4684,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>29</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4890,22 +4702,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>29.8</v>
+        <v>29.01</v>
       </c>
       <c r="C117" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="D117" t="n">
-        <v>29.8</v>
+        <v>29.01</v>
       </c>
       <c r="E117" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="F117" t="n">
-        <v>100</v>
+        <v>26807.931</v>
       </c>
       <c r="G117" t="n">
-        <v>-1678885.74373593</v>
+        <v>-1550205.14945862</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4914,7 +4726,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>29</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,22 +4744,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>29.79</v>
+        <v>29.1</v>
       </c>
       <c r="C118" t="n">
-        <v>29.79</v>
+        <v>29.1</v>
       </c>
       <c r="D118" t="n">
-        <v>29.79</v>
+        <v>29.1</v>
       </c>
       <c r="E118" t="n">
-        <v>29.79</v>
+        <v>29.1</v>
       </c>
       <c r="F118" t="n">
-        <v>21918.2895</v>
+        <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>-1700804.03323593</v>
+        <v>-1550105.14945862</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4954,7 +4768,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>29</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4965,6 +4781,1230 @@
       </c>
       <c r="N118" t="inlineStr"/>
     </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="C119" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D119" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="E119" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="F119" t="n">
+        <v>100</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1550005.14945862</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>29</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="C120" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="D120" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="E120" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="F120" t="n">
+        <v>100</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1550105.14945862</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>29</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>759.8954</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1550865.044858621</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>29</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="C122" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D122" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E122" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="F122" t="n">
+        <v>300</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1550565.044858621</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K122" t="n">
+        <v>29</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D123" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="E123" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>26600</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1523965.044858621</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>29</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>29</v>
+      </c>
+      <c r="C124" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D124" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="E124" t="n">
+        <v>29</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7577.77</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1523965.044858621</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>29</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="D125" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="E125" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>30100</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1554065.044858621</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="K125" t="n">
+        <v>29</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="C126" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D126" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="E126" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="F126" t="n">
+        <v>34513.3145</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1519551.73035862</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="K126" t="n">
+        <v>29</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="C127" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="F127" t="n">
+        <v>200</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1519351.73035862</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>29</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D128" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="F128" t="n">
+        <v>500</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1519851.73035862</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>29</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>100</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1519751.73035862</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>29</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="C130" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="D130" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="E130" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3214</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1516537.73035862</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>29</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="C131" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="D131" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="E131" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1516437.73035862</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>29</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="C132" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="D132" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="E132" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6300</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1522737.73035862</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>29</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="C133" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="D133" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="E133" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="F133" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1562737.73035862</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>29</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="C134" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="D134" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="E134" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1572737.73035862</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>29</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="C135" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="E135" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1582737.73035862</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>29</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="C136" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D136" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="E136" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4534.677</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1578203.05335862</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>29</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="C137" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="D137" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="E137" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4012.7095</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1582215.762858621</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>29</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1726.993243243243</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1580488.769615377</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>29</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>34.00673400673401</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1580454.76288137</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>29</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="C140" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="D140" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="E140" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="F140" t="n">
+        <v>34.00537634408602</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1580420.757505026</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>29</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="C141" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="D141" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="E141" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="F141" t="n">
+        <v>100</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1580320.757505026</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>29</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1580220.757505026</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>29</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="C143" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="D143" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="E143" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="F143" t="n">
+        <v>99897</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1680117.757505026</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>29</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="C144" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="D144" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="E144" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="F144" t="n">
+        <v>898.009069533087</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1679219.748435493</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>29</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="C145" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="D145" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="E145" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="F145" t="n">
+        <v>234.004699563612</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1678985.74373593</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>29</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>100</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1678885.74373593</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>29</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="C147" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="D147" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="E147" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="F147" t="n">
+        <v>21918.2895</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1700804.03323593</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>29</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-11 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>45942.21420000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-92441.37769999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-92441.37769999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-92293.89349999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-99967.89349999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-103804.8935</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-1497554.1266</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-1540204.486</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-1529198.486</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,19 @@
         <v>-1516420.68365862</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>28.99</v>
+      </c>
+      <c r="J94" t="n">
+        <v>28.99</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,22 +3524,21 @@
         <v>-1518249.79155862</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>29</v>
-      </c>
-      <c r="K95" t="n">
-        <v>29</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>28.99</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3844,26 +3563,21 @@
         <v>-1518149.79155862</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K96" t="n">
-        <v>29</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>28.99</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3888,2124 +3602,1829 @@
         <v>-1518049.79155862</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="C98" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D98" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E98" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1518149.79155862</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="C99" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="D99" t="n">
+        <v>29</v>
+      </c>
+      <c r="E99" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7589.661</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1525739.45255862</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="C100" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="D100" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="E100" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7695.0523</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1518044.40025862</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>29</v>
+      </c>
+      <c r="C101" t="n">
+        <v>29</v>
+      </c>
+      <c r="D101" t="n">
+        <v>29</v>
+      </c>
+      <c r="E101" t="n">
+        <v>29</v>
+      </c>
+      <c r="F101" t="n">
+        <v>200</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1517844.40025862</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C102" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D102" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E102" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1517944.40025862</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C103" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D103" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E103" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F103" t="n">
+        <v>350.3221</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1517944.40025862</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C104" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="D104" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="E104" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6352.8182</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1524297.21845862</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C105" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D105" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E105" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1524197.21845862</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C106" t="n">
         <v>29.08</v>
       </c>
-      <c r="K97" t="n">
+      <c r="D106" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="E106" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F106" t="n">
+        <v>200</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1523997.21845862</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C107" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D107" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E107" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F107" t="n">
+        <v>100</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1524097.21845862</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="C108" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="D108" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="E108" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1523997.21845862</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="C109" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D109" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="E109" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="F109" t="n">
+        <v>100</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1523897.21845862</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>100</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1523797.21845862</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="C111" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="D111" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="E111" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1523697.21845862</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="C112" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="D112" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="E112" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2041.0181</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1523697.21845862</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="C113" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D113" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="E113" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="F113" t="n">
+        <v>100</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1523597.21845862</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1523497.21845862</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>100</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1523497.21845862</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="C116" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="D116" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="E116" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="F116" t="n">
+        <v>100</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1523397.21845862</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="C117" t="n">
         <v>29</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="D117" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="E117" t="n">
+        <v>29</v>
+      </c>
+      <c r="F117" t="n">
+        <v>26807.931</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1550205.14945862</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1550105.14945862</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="C119" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D119" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="E119" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="F119" t="n">
+        <v>100</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1550005.14945862</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="C120" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="D120" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="E120" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="F120" t="n">
+        <v>100</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1550105.14945862</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>759.8954</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1550865.044858621</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="C122" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D122" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E122" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="F122" t="n">
+        <v>300</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1550565.044858621</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J122" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D123" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="E123" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>26600</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1523965.044858621</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="J123" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="C98" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="D98" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="E98" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="F98" t="n">
-        <v>100</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-1518149.79155862</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="C99" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
         <v>29</v>
       </c>
-      <c r="E99" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="F99" t="n">
-        <v>7589.661</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-1525739.45255862</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="C100" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="D100" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="E100" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="F100" t="n">
-        <v>7695.0523</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-1518044.40025862</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="C124" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D124" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="E124" t="n">
         <v>29</v>
       </c>
-      <c r="C101" t="n">
-        <v>29</v>
-      </c>
-      <c r="D101" t="n">
-        <v>29</v>
-      </c>
-      <c r="E101" t="n">
-        <v>29</v>
-      </c>
-      <c r="F101" t="n">
-        <v>200</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-1517844.40025862</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C102" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D102" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E102" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F102" t="n">
-        <v>100</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-1517944.40025862</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>29</v>
-      </c>
-      <c r="K102" t="n">
-        <v>29</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C103" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D103" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E103" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F103" t="n">
-        <v>350.3221</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-1517944.40025862</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K103" t="n">
-        <v>29</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="F124" t="n">
+        <v>7577.77</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1523965.044858621</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="J124" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C104" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="D104" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="E104" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F104" t="n">
-        <v>6352.8182</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-1524297.21845862</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K104" t="n">
-        <v>29</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="D125" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="E125" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>30100</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1554065.044858621</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="J125" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C105" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D105" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E105" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F105" t="n">
-        <v>100</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-1524197.21845862</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="K105" t="n">
-        <v>29</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="C126" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D126" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="E126" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="F126" t="n">
+        <v>34513.3145</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1519551.73035862</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="J126" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C106" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="D106" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="E106" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F106" t="n">
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="C127" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="F127" t="n">
         <v>200</v>
       </c>
-      <c r="G106" t="n">
-        <v>-1523997.21845862</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K106" t="n">
-        <v>29</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="G127" t="n">
+        <v>-1519351.73035862</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C107" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D107" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E107" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F107" t="n">
-        <v>100</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-1524097.21845862</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K107" t="n">
-        <v>29</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D128" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="F128" t="n">
+        <v>500</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1519851.73035862</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="C108" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="D108" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="E108" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="F108" t="n">
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F129" t="n">
         <v>100</v>
       </c>
-      <c r="G108" t="n">
-        <v>-1523997.21845862</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K108" t="n">
-        <v>29</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="G129" t="n">
+        <v>-1519751.73035862</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="C109" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="D109" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="E109" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="F109" t="n">
-        <v>100</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1523897.21845862</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K109" t="n">
-        <v>29</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="C130" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="D130" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="E130" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3214</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1516537.73035862</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F110" t="n">
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="C131" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="D131" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="E131" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="F131" t="n">
         <v>100</v>
       </c>
-      <c r="G110" t="n">
-        <v>-1523797.21845862</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="K110" t="n">
-        <v>29</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G131" t="n">
+        <v>-1516437.73035862</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="C111" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="D111" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="E111" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="F111" t="n">
-        <v>100</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-1523697.21845862</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>29</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="C132" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="D132" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="E132" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6300</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1522737.73035862</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="C112" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="D112" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="E112" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2041.0181</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1523697.21845862</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>29</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="C133" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="D133" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="E133" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="F133" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1562737.73035862</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="C113" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="D113" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="E113" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="F113" t="n">
-        <v>100</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1523597.21845862</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>29</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="C134" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="D134" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="E134" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1572737.73035862</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C114" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D114" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E114" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>100</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-1523497.21845862</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>29</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="C135" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="E135" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1582737.73035862</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D115" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E115" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>100</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-1523497.21845862</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>29</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="C136" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D136" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="E136" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4534.677</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1578203.05335862</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="C116" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="D116" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="E116" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="F116" t="n">
-        <v>100</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-1523397.21845862</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>29</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="C137" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="D137" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="E137" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4012.7095</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1582215.762858621</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C117" t="n">
-        <v>29</v>
-      </c>
-      <c r="D117" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="E117" t="n">
-        <v>29</v>
-      </c>
-      <c r="F117" t="n">
-        <v>26807.931</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-1550205.14945862</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>29</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1726.993243243243</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1580488.769615377</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E118" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F118" t="n">
-        <v>100</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-1550105.14945862</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>29</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>34.00673400673401</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1580454.76288137</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="C119" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="D119" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="E119" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="F119" t="n">
-        <v>100</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-1550005.14945862</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>29</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="C140" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="D140" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="E140" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="F140" t="n">
+        <v>34.00537634408602</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1580420.757505026</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="C120" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="D120" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="E120" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="F120" t="n">
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="C141" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="D141" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="E141" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="F141" t="n">
         <v>100</v>
       </c>
-      <c r="G120" t="n">
-        <v>-1550105.14945862</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>29</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="G141" t="n">
+        <v>-1580320.757505026</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1580220.757505026</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
         <v>28.9</v>
       </c>
-      <c r="C121" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E121" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>759.8954</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1550865.044858621</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>29</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="C122" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="D122" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="E122" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="F122" t="n">
-        <v>300</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1550565.044858621</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="C143" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="D143" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="E143" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="F143" t="n">
+        <v>99897</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1680117.757505026</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
         <v>28.9</v>
       </c>
-      <c r="K122" t="n">
-        <v>29</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C123" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="D123" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="E123" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F123" t="n">
-        <v>26600</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1523965.044858621</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>29</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="C144" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="D144" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="E144" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="F144" t="n">
+        <v>898.009069533087</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1679219.748435493</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>29</v>
-      </c>
-      <c r="C124" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="D124" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="E124" t="n">
-        <v>29</v>
-      </c>
-      <c r="F124" t="n">
-        <v>7577.77</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-1523965.044858621</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>29</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="C145" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="D145" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="E145" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="F145" t="n">
+        <v>234.004699563612</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1678985.74373593</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="D125" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="E125" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>30100</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-1554065.044858621</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="K125" t="n">
-        <v>29</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>100</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1678885.74373593</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="C126" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="D126" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="E126" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="F126" t="n">
-        <v>34513.3145</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1519551.73035862</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="K126" t="n">
-        <v>29</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="C147" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="D147" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="E147" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="F147" t="n">
+        <v>21918.2895</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1700804.03323593</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="C127" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E127" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="F127" t="n">
-        <v>200</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1519351.73035862</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>29</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C128" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="D128" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E128" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="F128" t="n">
-        <v>500</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-1519851.73035862</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>29</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D129" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F129" t="n">
-        <v>100</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-1519751.73035862</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>29</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="C130" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="D130" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="E130" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="F130" t="n">
-        <v>3214</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-1516537.73035862</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>29</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>29.57</v>
-      </c>
-      <c r="C131" t="n">
-        <v>29.57</v>
-      </c>
-      <c r="D131" t="n">
-        <v>29.57</v>
-      </c>
-      <c r="E131" t="n">
-        <v>29.57</v>
-      </c>
-      <c r="F131" t="n">
-        <v>100</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-1516437.73035862</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>29</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>29.49</v>
-      </c>
-      <c r="C132" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="D132" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="E132" t="n">
-        <v>29.49</v>
-      </c>
-      <c r="F132" t="n">
-        <v>6300</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-1522737.73035862</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>29</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="C133" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="D133" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="E133" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="F133" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-1562737.73035862</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>29</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="C134" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="D134" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="E134" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="F134" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1572737.73035862</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>29</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="C135" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="E135" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F135" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-1582737.73035862</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>29</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="C136" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="D136" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="E136" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4534.677</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-1578203.05335862</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>29</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>29.38</v>
-      </c>
-      <c r="C137" t="n">
-        <v>29.38</v>
-      </c>
-      <c r="D137" t="n">
-        <v>29.38</v>
-      </c>
-      <c r="E137" t="n">
-        <v>29.38</v>
-      </c>
-      <c r="F137" t="n">
-        <v>4012.7095</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-1582215.762858621</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>29</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C138" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D138" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1726.993243243243</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-1580488.769615377</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>29</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C139" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>34.00673400673401</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-1580454.76288137</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>29</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="C140" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="D140" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="E140" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="F140" t="n">
-        <v>34.00537634408602</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-1580420.757505026</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>29</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="C141" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="D141" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="E141" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="F141" t="n">
-        <v>100</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1580320.757505026</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>29</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D142" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E142" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>100</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1580220.757505026</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>29</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>29.53</v>
-      </c>
-      <c r="C143" t="n">
-        <v>29.69</v>
-      </c>
-      <c r="D143" t="n">
-        <v>29.69</v>
-      </c>
-      <c r="E143" t="n">
-        <v>29.53</v>
-      </c>
-      <c r="F143" t="n">
-        <v>99897</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1680117.757505026</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>29</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>29.68</v>
-      </c>
-      <c r="C144" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="D144" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="E144" t="n">
-        <v>29.68</v>
-      </c>
-      <c r="F144" t="n">
-        <v>898.009069533087</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1679219.748435493</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>29</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="C145" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="D145" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="E145" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="F145" t="n">
-        <v>234.004699563612</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1678985.74373593</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>29</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C146" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D146" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E146" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F146" t="n">
-        <v>100</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1678885.74373593</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>29</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="C147" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="D147" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="E147" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="F147" t="n">
-        <v>21918.2895</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1700804.03323593</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>29</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-11 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-59452.60619999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-58045.60619999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-58045.60619999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-57945.60619999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>5942.214200000009</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5842.214200000009</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>45942.21420000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-14057.78579999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-92441.37769999998</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-92441.37769999998</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-92393.89349999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-92293.89349999998</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-99967.89349999998</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-103804.8935</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-105922.5587</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-119603.5746</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1153102.5295</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1151602.5295</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1164282.4473</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1170609.4473</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1143637.8483</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1220637.8483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1221325.2396</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1181725.2396</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1221925.2396</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1073743.4007</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1073392.1115</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1073432.1115</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1221982.3396</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1226819.3396</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1283419.3396</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1241819.3396</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1247221.9739</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1224176.2401</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1379429.2401</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1379411.2401</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1379211.2401</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1381429.0925</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1497554.1266</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2992,10 +2992,14 @@
         <v>-1540237.538399999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J79" t="n">
+        <v>28.97</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3027,9 +3031,17 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="J80" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3070,19 @@
         <v>-1529198.486</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="J81" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,10 +3111,14 @@
         <v>-1529198.486</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="J82" t="n">
+        <v>29.08</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
@@ -3124,11 +3148,19 @@
         <v>-1529198.486</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="J83" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3159,9 +3191,17 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="J84" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,10 +3230,14 @@
         <v>-1529098.486</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="J85" t="n">
+        <v>29.08</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3223,11 +3267,19 @@
         <v>-1530030.5067</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="J86" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3311,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3446,17 @@
         <v>-1524795.83945862</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>28.99</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3485,17 @@
         <v>-1525295.83945862</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>29</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3524,17 @@
         <v>-1525195.83945862</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>28.92</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,15 +3563,17 @@
         <v>-1516420.68365862</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>28.99</v>
       </c>
-      <c r="J94" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,15 +3602,15 @@
         <v>-1518249.79155862</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>28.99</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>29</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3563,15 +3641,15 @@
         <v>-1518149.79155862</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>28.99</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3602,11 +3680,17 @@
         <v>-1518049.79155862</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>29.08</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +3719,17 @@
         <v>-1518149.79155862</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3668,11 +3758,17 @@
         <v>-1525739.45255862</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>29.09</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3701,11 +3797,17 @@
         <v>-1518044.40025862</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>28.92</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3734,11 +3836,17 @@
         <v>-1517844.40025862</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>28.98</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3767,11 +3875,17 @@
         <v>-1517944.40025862</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>29</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3800,11 +3914,17 @@
         <v>-1517944.40025862</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>28.99</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3835,9 +3955,15 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>28.99</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3866,11 +3992,17 @@
         <v>-1524197.21845862</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>28.89</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3899,11 +4031,17 @@
         <v>-1523997.21845862</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>28.99</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3932,11 +4070,17 @@
         <v>-1524097.21845862</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>29.08</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3967,9 +4111,15 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>28.99</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4000,9 +4150,15 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>29.08</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +4187,17 @@
         <v>-1523797.21845862</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>29.19</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4064,11 +4226,17 @@
         <v>-1523697.21845862</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4097,11 +4265,15 @@
         <v>-1523697.21845862</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4130,11 +4302,15 @@
         <v>-1523597.21845862</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4167,7 +4343,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4196,11 +4376,15 @@
         <v>-1523497.21845862</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4229,11 +4413,15 @@
         <v>-1523397.21845862</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4262,11 +4450,15 @@
         <v>-1550205.14945862</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4299,7 +4491,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4332,7 +4528,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4365,7 +4565,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4394,11 +4598,17 @@
         <v>-1550865.044858621</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>29.17</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4427,15 +4637,17 @@
         <v>-1550565.044858621</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>28.9</v>
       </c>
-      <c r="J122" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4464,17 +4676,15 @@
         <v>-1523965.044858621</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>29.09</v>
       </c>
-      <c r="J123" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4505,17 +4715,15 @@
         <v>-1523965.044858621</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>29.19</v>
       </c>
-      <c r="J124" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -4546,17 +4754,15 @@
         <v>-1554065.044858621</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>29.19</v>
       </c>
-      <c r="J125" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4587,14 +4793,12 @@
         <v>-1519551.73035862</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>29.17</v>
       </c>
-      <c r="J126" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4628,12 +4832,12 @@
         <v>-1519351.73035862</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>28.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,9 +4874,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,9 +4911,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,9 +4948,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4787,9 +4985,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4826,9 +5022,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4865,9 +5059,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,9 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,12 +5130,12 @@
         <v>-1582737.73035862</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>28.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,12 +5169,12 @@
         <v>-1578203.05335862</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>28.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,12 +5208,12 @@
         <v>-1582215.762858621</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>28.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,9 +5250,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5099,9 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,9 +5324,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5177,9 +5361,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5216,9 +5398,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5255,9 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,9 +5472,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5333,9 +5509,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5372,9 +5546,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5411,9 +5583,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,6 +5595,6 @@
       <c r="M147" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-11 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-59452.60619999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-58045.60619999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-58045.60619999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-57945.60619999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>5942.214200000009</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5842.214200000009</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>45942.21420000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-14057.78579999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-92393.89349999998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-92293.89349999998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-99967.89349999998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-103804.8935</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-105922.5587</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-119603.5746</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1153102.5295</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1151602.5295</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1164282.4473</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1170609.4473</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1143637.8483</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1220637.8483</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1221325.2396</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1181725.2396</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1221925.2396</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1073743.4007</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1226819.3396</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1283419.3396</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1247221.9739</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1224176.2401</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1379429.2401</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1349571.8041</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1372617.5379</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1372599.5379</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2992,14 +2992,10 @@
         <v>-1540237.538399999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J79" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3029,19 +3025,11 @@
         <v>-1540204.486</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="J80" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3070,19 +3058,11 @@
         <v>-1529198.486</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>29.06</v>
-      </c>
-      <c r="J81" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3111,14 +3091,10 @@
         <v>-1529198.486</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="J82" t="n">
-        <v>29.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
@@ -3148,19 +3124,11 @@
         <v>-1529198.486</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="J83" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3189,19 +3157,11 @@
         <v>-1529198.486</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="J84" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3230,14 +3190,10 @@
         <v>-1529098.486</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="J85" t="n">
-        <v>29.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3267,19 +3223,11 @@
         <v>-1530030.5067</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="J86" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3311,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3446,17 +3388,11 @@
         <v>-1524795.83945862</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>28.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3485,17 +3421,11 @@
         <v>-1525295.83945862</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3524,17 +3454,11 @@
         <v>-1525195.83945862</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>28.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3563,17 +3487,11 @@
         <v>-1516420.68365862</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>28.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3607,12 +3525,10 @@
       <c r="I95" t="n">
         <v>29</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="n">
+        <v>29</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3646,10 +3562,12 @@
       <c r="I96" t="n">
         <v>28.92</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>29</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3685,10 +3603,12 @@
       <c r="I97" t="n">
         <v>29.08</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>29</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3719,17 +3639,11 @@
         <v>-1518149.79155862</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3758,17 +3672,11 @@
         <v>-1525739.45255862</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>29.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3805,7 +3713,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -4187,11 +4095,9 @@
         <v>-1523797.21845862</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>29.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4226,11 +4132,9 @@
         <v>-1523697.21845862</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4450,18 +4354,16 @@
         <v>-1550205.14945862</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -4491,11 +4393,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4528,11 +4426,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4565,11 +4459,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4598,17 +4488,11 @@
         <v>-1550865.044858621</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>29.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4637,17 +4521,11 @@
         <v>-1550565.044858621</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4676,17 +4554,11 @@
         <v>-1523965.044858621</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>29.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4715,17 +4587,11 @@
         <v>-1523965.044858621</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>29.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4754,17 +4620,11 @@
         <v>-1554065.044858621</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>29.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4793,17 +4653,11 @@
         <v>-1519551.73035862</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>29.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4832,17 +4686,11 @@
         <v>-1519351.73035862</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>29.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4875,11 +4723,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4912,11 +4756,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4949,11 +4789,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4986,11 +4822,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5023,11 +4855,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5060,11 +4888,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5097,11 +4921,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5130,17 +4950,11 @@
         <v>-1582737.73035862</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>29.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5169,17 +4983,11 @@
         <v>-1578203.05335862</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5208,17 +5016,11 @@
         <v>-1582215.762858621</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5251,11 +5053,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5288,11 +5086,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5325,11 +5119,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5362,11 +5152,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5399,11 +5185,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5436,11 +5218,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5473,11 +5251,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5510,11 +5284,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5547,11 +5317,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5584,17 +5350,13 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
       <c r="M147" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-11 BackTest LAMB.xlsx
@@ -1012,7 +1012,7 @@
         <v>-92393.89349999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-92293.89349999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-99967.89349999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-103804.8935</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1151602.5295</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1073392.1115</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1073432.1115</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1221982.3396</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1241819.3396</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1379411.2401</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1379211.2401</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1381429.0925</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1349571.8041</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1372617.5379</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1372599.5379</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -3454,10 +3454,14 @@
         <v>-1525195.83945862</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="J93" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3487,11 +3491,19 @@
         <v>-1516420.68365862</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="J94" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3526,9 +3538,13 @@
         <v>29</v>
       </c>
       <c r="J95" t="n">
-        <v>29</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>28.92</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3563,13 +3579,9 @@
         <v>28.92</v>
       </c>
       <c r="J96" t="n">
-        <v>29</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>28.92</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3604,7 +3616,7 @@
         <v>29.08</v>
       </c>
       <c r="J97" t="n">
-        <v>29</v>
+        <v>28.92</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3642,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3690,19 @@
         <v>-1525739.45255862</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="J99" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3710,10 +3736,12 @@
       <c r="I100" t="n">
         <v>28.92</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3749,7 +3777,9 @@
       <c r="I101" t="n">
         <v>28.98</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3788,7 +3818,9 @@
       <c r="I102" t="n">
         <v>29</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3827,7 +3859,9 @@
       <c r="I103" t="n">
         <v>28.99</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3866,7 +3900,9 @@
       <c r="I104" t="n">
         <v>28.99</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3905,7 +3941,9 @@
       <c r="I105" t="n">
         <v>28.89</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,7 +3982,9 @@
       <c r="I106" t="n">
         <v>28.99</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3983,7 +4023,9 @@
       <c r="I107" t="n">
         <v>29.08</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4022,7 +4064,9 @@
       <c r="I108" t="n">
         <v>28.99</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4061,7 +4105,9 @@
       <c r="I109" t="n">
         <v>29.08</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,10 +4141,14 @@
         <v>-1523797.21845862</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="J110" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4132,10 +4182,14 @@
         <v>-1523697.21845862</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4169,10 +4223,14 @@
         <v>-1523697.21845862</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="J112" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,7 +4267,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,7 +4306,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,7 +4345,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4320,7 +4384,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4354,16 +4420,20 @@
         <v>-1550205.14945862</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>28.92</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
       <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -4392,8 +4462,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4425,8 +4501,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4455,11 +4537,19 @@
         <v>-1550105.14945862</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="J120" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4491,8 +4581,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4521,11 +4617,19 @@
         <v>-1550565.044858621</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J122" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4554,11 +4658,19 @@
         <v>-1523965.044858621</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="J123" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4587,11 +4699,19 @@
         <v>-1523965.044858621</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="J124" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4620,11 +4740,19 @@
         <v>-1554065.044858621</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="J125" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4653,11 +4781,19 @@
         <v>-1519551.73035862</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="J126" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4689,8 +4825,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4722,8 +4864,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4755,8 +4903,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4788,8 +4942,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4821,8 +4981,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4854,8 +5020,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4887,8 +5059,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4920,8 +5098,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4953,8 +5137,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4986,8 +5176,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5019,8 +5215,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5052,8 +5254,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5085,8 +5293,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5118,8 +5332,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5148,13 +5368,19 @@
         <v>-1580320.757505026</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>1.024737206085754</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -5214,7 +5440,7 @@
         <v>-1680117.757505026</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5346,7 +5572,7 @@
         <v>-1700804.03323593</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-11 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3400</v>
       </c>
       <c r="G2" t="n">
-        <v>-59452.60619999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1407</v>
       </c>
       <c r="G3" t="n">
-        <v>-58045.60619999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>7935.5726</v>
       </c>
       <c r="G4" t="n">
-        <v>-58045.60619999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>-57945.60619999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>63887.8204</v>
       </c>
       <c r="G6" t="n">
-        <v>5942.214200000009</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>5842.214200000009</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>40100</v>
       </c>
       <c r="G8" t="n">
-        <v>45942.21420000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>60000</v>
       </c>
       <c r="G9" t="n">
-        <v>-14057.78579999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>100000</v>
       </c>
       <c r="G10" t="n">
-        <v>-114057.7858</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>20947.8706</v>
       </c>
       <c r="G11" t="n">
-        <v>-93109.91519999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>-93009.91519999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>18853.0836</v>
       </c>
       <c r="G13" t="n">
-        <v>-111862.9988</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>19321.6211</v>
       </c>
       <c r="G14" t="n">
-        <v>-92541.37769999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>-92441.37769999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>15858</v>
       </c>
       <c r="G16" t="n">
-        <v>-92441.37769999998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1108</v>
       </c>
       <c r="G17" t="n">
-        <v>-92441.37769999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>17990.7192</v>
       </c>
       <c r="G18" t="n">
-        <v>-92441.37769999998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>47.4842</v>
       </c>
       <c r="G19" t="n">
-        <v>-92393.89349999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>-92293.89349999998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>7674</v>
       </c>
       <c r="G21" t="n">
-        <v>-99967.89349999998</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3837</v>
       </c>
       <c r="G22" t="n">
-        <v>-103804.8935</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2117.6652</v>
       </c>
       <c r="G23" t="n">
-        <v>-105922.5587</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>13681.0159</v>
       </c>
       <c r="G24" t="n">
-        <v>-119603.5746</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1033498.9549</v>
       </c>
       <c r="G25" t="n">
-        <v>-1153102.5295</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1500</v>
       </c>
       <c r="G26" t="n">
-        <v>-1151602.5295</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>12679.9178</v>
       </c>
       <c r="G27" t="n">
-        <v>-1164282.4473</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>6327</v>
       </c>
       <c r="G28" t="n">
-        <v>-1170609.4473</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>26971.599</v>
       </c>
       <c r="G29" t="n">
-        <v>-1143637.8483</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>77000</v>
       </c>
       <c r="G30" t="n">
-        <v>-1220637.8483</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>687.3913</v>
       </c>
       <c r="G31" t="n">
-        <v>-1221325.2396</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>39600</v>
       </c>
       <c r="G32" t="n">
-        <v>-1181725.2396</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>40200</v>
       </c>
       <c r="G33" t="n">
-        <v>-1221925.2396</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>148181.8389</v>
       </c>
       <c r="G34" t="n">
-        <v>-1073743.4007</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>351.2892</v>
       </c>
       <c r="G35" t="n">
-        <v>-1073392.1115</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>40</v>
       </c>
       <c r="G36" t="n">
-        <v>-1073432.1115</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>148550.2281</v>
       </c>
       <c r="G37" t="n">
-        <v>-1221982.3396</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>4837</v>
       </c>
       <c r="G38" t="n">
-        <v>-1226819.3396</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>56600</v>
       </c>
       <c r="G39" t="n">
-        <v>-1283419.3396</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>41600</v>
       </c>
       <c r="G40" t="n">
-        <v>-1241819.3396</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>5402.6343</v>
       </c>
       <c r="G41" t="n">
-        <v>-1247221.9739</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>23045.7338</v>
       </c>
       <c r="G42" t="n">
-        <v>-1224176.2401</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>155253</v>
       </c>
       <c r="G43" t="n">
-        <v>-1379429.2401</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>18</v>
       </c>
       <c r="G44" t="n">
-        <v>-1379411.2401</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>200</v>
       </c>
       <c r="G45" t="n">
-        <v>-1379211.2401</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2217.8524</v>
       </c>
       <c r="G46" t="n">
-        <v>-1381429.0925</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>31857.2884</v>
       </c>
       <c r="G47" t="n">
-        <v>-1349571.8041</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>23045.7338</v>
       </c>
       <c r="G48" t="n">
-        <v>-1372617.5379</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>18</v>
       </c>
       <c r="G49" t="n">
-        <v>-1372599.5379</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>28529.6369</v>
       </c>
       <c r="G50" t="n">
-        <v>-1401129.1748</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>29168.514</v>
       </c>
       <c r="G51" t="n">
-        <v>-1371960.6608</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>40802.845</v>
       </c>
       <c r="G52" t="n">
-        <v>-1331157.8158</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>40500</v>
       </c>
       <c r="G53" t="n">
-        <v>-1371657.8158</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>18</v>
       </c>
       <c r="G54" t="n">
-        <v>-1371639.8158</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>90000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1461639.8158</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>34553.5344</v>
       </c>
       <c r="G56" t="n">
-        <v>-1496193.3502</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>12330.544</v>
       </c>
       <c r="G57" t="n">
-        <v>-1483862.8062</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>-1483762.8062</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>12012.8295</v>
       </c>
       <c r="G59" t="n">
-        <v>-1483762.8062</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>9873</v>
       </c>
       <c r="G60" t="n">
-        <v>-1493635.8062</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>80837.5974</v>
       </c>
       <c r="G61" t="n">
-        <v>-1412798.2088</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>2000</v>
       </c>
       <c r="G62" t="n">
-        <v>-1414798.2088</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>42730.544</v>
       </c>
       <c r="G63" t="n">
-        <v>-1457528.7528</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>20612.6918</v>
       </c>
       <c r="G64" t="n">
-        <v>-1478141.4446</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>21253.7373</v>
       </c>
       <c r="G65" t="n">
-        <v>-1499395.1819</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>29663.0934</v>
       </c>
       <c r="G66" t="n">
-        <v>-1529058.2753</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>31504.1487</v>
       </c>
       <c r="G67" t="n">
-        <v>-1497554.1266</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,19 @@
         <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>-1497454.1266</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>28.89</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28.89</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2457,21 @@
         <v>12244.0336</v>
       </c>
       <c r="G69" t="n">
-        <v>-1509698.1602</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2493,21 @@
         <v>200</v>
       </c>
       <c r="G70" t="n">
-        <v>-1509498.1602</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2529,19 @@
         <v>13256.0506</v>
       </c>
       <c r="G71" t="n">
-        <v>-1509498.1602</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="I71" t="n">
+        <v>29</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2563,21 @@
         <v>14341.1596</v>
       </c>
       <c r="G72" t="n">
-        <v>-1523839.319799999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>29</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2599,23 @@
         <v>18</v>
       </c>
       <c r="G73" t="n">
-        <v>-1523821.319799999</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>28.82</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2637,23 @@
         <v>10800</v>
       </c>
       <c r="G74" t="n">
-        <v>-1534621.319799999</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>28.99</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2675,23 @@
         <v>18</v>
       </c>
       <c r="G75" t="n">
-        <v>-1534603.319799999</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>28.82</v>
+      </c>
+      <c r="I75" t="n">
+        <v>29</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2713,21 @@
         <v>2226.854</v>
       </c>
       <c r="G76" t="n">
-        <v>-1536830.1738</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>29</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2749,23 @@
         <v>18</v>
       </c>
       <c r="G77" t="n">
-        <v>-1536812.1738</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>28.82</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2787,21 @@
         <v>3443.3646</v>
       </c>
       <c r="G78" t="n">
-        <v>-1540255.538399999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>29</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2823,21 @@
         <v>18</v>
       </c>
       <c r="G79" t="n">
-        <v>-1540237.538399999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>29</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2859,21 @@
         <v>33.0524</v>
       </c>
       <c r="G80" t="n">
-        <v>-1540204.486</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>29</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2895,21 @@
         <v>11006</v>
       </c>
       <c r="G81" t="n">
-        <v>-1529198.486</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>29</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2931,21 @@
         <v>6738.6065</v>
       </c>
       <c r="G82" t="n">
-        <v>-1529198.486</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>29</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2967,23 @@
         <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>-1529198.486</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>29.08</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3005,21 @@
         <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>-1529198.486</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>29</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3041,21 @@
         <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>-1529098.486</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>29</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3077,21 @@
         <v>932.0207</v>
       </c>
       <c r="G86" t="n">
-        <v>-1530030.5067</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>29</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3113,21 @@
         <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>-1529930.5067</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>29</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3149,21 @@
         <v>99.84999999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>-1530030.3567</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>29</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3185,21 @@
         <v>0.15</v>
       </c>
       <c r="G89" t="n">
-        <v>-1530030.3567</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>29</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3221,21 @@
         <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>-1530130.3567</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>29</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3257,21 @@
         <v>5334.517241379311</v>
       </c>
       <c r="G91" t="n">
-        <v>-1524795.83945862</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>29</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3293,21 @@
         <v>500</v>
       </c>
       <c r="G92" t="n">
-        <v>-1525295.83945862</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>29</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,22 +3329,21 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>-1525195.83945862</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="J93" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3488,26 +3365,21 @@
         <v>8775.1558</v>
       </c>
       <c r="G94" t="n">
-        <v>-1516420.68365862</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="J94" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3529,26 +3401,21 @@
         <v>1829.1079</v>
       </c>
       <c r="G95" t="n">
-        <v>-1518249.79155862</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
         <v>29</v>
       </c>
-      <c r="J95" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3570,22 +3437,21 @@
         <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>-1518149.79155862</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="J96" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3607,26 +3473,21 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>-1518049.79155862</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="J97" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3648,24 +3509,21 @@
         <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>-1518149.79155862</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>29</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3687,26 +3545,21 @@
         <v>7589.661</v>
       </c>
       <c r="G99" t="n">
-        <v>-1525739.45255862</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="J99" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3728,26 +3581,21 @@
         <v>7695.0523</v>
       </c>
       <c r="G100" t="n">
-        <v>-1518044.40025862</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="J100" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3769,26 +3617,21 @@
         <v>200</v>
       </c>
       <c r="G101" t="n">
-        <v>-1517844.40025862</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="J101" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3810,26 +3653,21 @@
         <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>-1517944.40025862</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
         <v>29</v>
       </c>
-      <c r="J102" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3851,26 +3689,21 @@
         <v>350.3221</v>
       </c>
       <c r="G103" t="n">
-        <v>-1517944.40025862</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="J103" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3892,26 +3725,21 @@
         <v>6352.8182</v>
       </c>
       <c r="G104" t="n">
-        <v>-1524297.21845862</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="J104" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3933,26 +3761,21 @@
         <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>-1524197.21845862</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J105" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3974,26 +3797,21 @@
         <v>200</v>
       </c>
       <c r="G106" t="n">
-        <v>-1523997.21845862</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="J106" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4015,26 +3833,21 @@
         <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>-1524097.21845862</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="J107" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4056,26 +3869,21 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>-1523997.21845862</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="J108" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4097,26 +3905,21 @@
         <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>-1523897.21845862</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="J109" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4138,26 +3941,21 @@
         <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>-1523797.21845862</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="J110" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4179,26 +3977,21 @@
         <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>-1523697.21845862</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J111" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4220,26 +4013,21 @@
         <v>2041.0181</v>
       </c>
       <c r="G112" t="n">
-        <v>-1523697.21845862</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="J112" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4261,24 +4049,21 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>-1523597.21845862</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>29</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4300,24 +4085,21 @@
         <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>-1523497.21845862</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>29</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4339,24 +4121,21 @@
         <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>-1523497.21845862</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>29</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4378,24 +4157,21 @@
         <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>-1523397.21845862</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>29</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4417,24 +4193,21 @@
         <v>26807.931</v>
       </c>
       <c r="G117" t="n">
-        <v>-1550205.14945862</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>29</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4456,24 +4229,21 @@
         <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>-1550105.14945862</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>29</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4495,24 +4265,21 @@
         <v>100</v>
       </c>
       <c r="G119" t="n">
-        <v>-1550005.14945862</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>29</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4534,26 +4301,21 @@
         <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>-1550105.14945862</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="J120" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4575,24 +4337,21 @@
         <v>759.8954</v>
       </c>
       <c r="G121" t="n">
-        <v>-1550865.044858621</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>29</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4614,26 +4373,21 @@
         <v>300</v>
       </c>
       <c r="G122" t="n">
-        <v>-1550565.044858621</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J122" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4655,26 +4409,21 @@
         <v>26600</v>
       </c>
       <c r="G123" t="n">
-        <v>-1523965.044858621</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="J123" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4696,26 +4445,21 @@
         <v>7577.77</v>
       </c>
       <c r="G124" t="n">
-        <v>-1523965.044858621</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="J124" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4737,26 +4481,21 @@
         <v>30100</v>
       </c>
       <c r="G125" t="n">
-        <v>-1554065.044858621</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="J125" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4778,26 +4517,21 @@
         <v>34513.3145</v>
       </c>
       <c r="G126" t="n">
-        <v>-1519551.73035862</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="J126" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4819,24 +4553,21 @@
         <v>200</v>
       </c>
       <c r="G127" t="n">
-        <v>-1519351.73035862</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>29</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4858,24 +4589,21 @@
         <v>500</v>
       </c>
       <c r="G128" t="n">
-        <v>-1519851.73035862</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>29</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4897,24 +4625,21 @@
         <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>-1519751.73035862</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>29</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4936,24 +4661,21 @@
         <v>3214</v>
       </c>
       <c r="G130" t="n">
-        <v>-1516537.73035862</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>29</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4975,24 +4697,21 @@
         <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>-1516437.73035862</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>29</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5014,24 +4733,21 @@
         <v>6300</v>
       </c>
       <c r="G132" t="n">
-        <v>-1522737.73035862</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>29</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5053,24 +4769,21 @@
         <v>40000</v>
       </c>
       <c r="G133" t="n">
-        <v>-1562737.73035862</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>29</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5092,24 +4805,21 @@
         <v>10000</v>
       </c>
       <c r="G134" t="n">
-        <v>-1572737.73035862</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>29</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5131,24 +4841,21 @@
         <v>10000</v>
       </c>
       <c r="G135" t="n">
-        <v>-1582737.73035862</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>29</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5170,24 +4877,21 @@
         <v>4534.677</v>
       </c>
       <c r="G136" t="n">
-        <v>-1578203.05335862</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>29</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5209,24 +4913,21 @@
         <v>4012.7095</v>
       </c>
       <c r="G137" t="n">
-        <v>-1582215.762858621</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>29</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5248,24 +4949,21 @@
         <v>1726.993243243243</v>
       </c>
       <c r="G138" t="n">
-        <v>-1580488.769615377</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>29</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5287,24 +4985,21 @@
         <v>34.00673400673401</v>
       </c>
       <c r="G139" t="n">
-        <v>-1580454.76288137</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>29</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5326,24 +5021,21 @@
         <v>34.00537634408602</v>
       </c>
       <c r="G140" t="n">
-        <v>-1580420.757505026</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>29</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5365,24 +5057,21 @@
         <v>100</v>
       </c>
       <c r="G141" t="n">
-        <v>-1580320.757505026</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1.024737206085754</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>29</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5404,18 +5093,21 @@
         <v>100</v>
       </c>
       <c r="G142" t="n">
-        <v>-1580220.757505026</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>29</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5437,18 +5129,21 @@
         <v>99897</v>
       </c>
       <c r="G143" t="n">
-        <v>-1680117.757505026</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>29</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1.018793103448276</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5470,18 +5165,15 @@
         <v>898.009069533087</v>
       </c>
       <c r="G144" t="n">
-        <v>-1679219.748435493</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5503,18 +5195,15 @@
         <v>234.004699563612</v>
       </c>
       <c r="G145" t="n">
-        <v>-1678985.74373593</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5536,18 +5225,15 @@
         <v>100</v>
       </c>
       <c r="G146" t="n">
-        <v>-1678885.74373593</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5569,18 +5255,15 @@
         <v>21918.2895</v>
       </c>
       <c r="G147" t="n">
-        <v>-1700804.03323593</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
